--- a/01 Raw/produtores/Ribaue/Lista_presenças_Ribaue S12.xlsx
+++ b/01 Raw/produtores/Ribaue/Lista_presenças_Ribaue S12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://muvamozorg-my.sharepoint.com/personal/janio_muianga_muvamoz_org/Documents/Departamento MIS/PROJECTOS/SISTEMA DE MONITORIA/Considera/considera_ciclo3/01 Raw/produtores/Muoco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisio\Desktop\Kufungula\Kufungula\DashboardPI\01 Raw\produtores\Ribaue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{AF0F97BC-B111-4390-AD8A-B41C9BE73658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC83B3BC-CE33-4C38-98C5-E34D963670DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B43BD64-C7F1-4F5E-A5BA-2B8B54BF1489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1050" windowWidth="12620" windowHeight="9750" activeTab="1" xr2:uid="{FB114E4F-E4A9-47BC-8427-63B431FF3E38}"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="12696" windowHeight="12240" xr2:uid="{FB114E4F-E4A9-47BC-8427-63B431FF3E38}"/>
   </bookViews>
   <sheets>
     <sheet name="AP-MO-01" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,6 @@
     <t>Presença (1- PRESENTE, 0 - AUSENTE, 2-DESISTENTE)</t>
   </si>
   <si>
-    <t>TPC (FOTOVOICE) 1-SIM; 0- NÃO</t>
-  </si>
-  <si>
-    <t>Apresentou o TPC em planario (1-SIM, 0-NÃO)</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -219,7 +213,13 @@
     <t>AP-MO-02</t>
   </si>
   <si>
-    <t>Percentegem de engajamento da turma</t>
+    <t>FormacaoPI</t>
+  </si>
+  <si>
+    <t>NomeSessao</t>
+  </si>
+  <si>
+    <t>deslocado</t>
   </si>
 </sst>
 </file>
@@ -658,24 +658,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB151EF6-EDE9-47FC-BDC0-2AE561845E68}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="49" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="37.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" customWidth="1"/>
-    <col min="8" max="8" width="38.81640625" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="41.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" customWidth="1"/>
+    <col min="8" max="8" width="38.77734375" customWidth="1"/>
     <col min="9" max="9" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,30 +692,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4">
@@ -725,18 +725,18 @@
       <c r="H2" s="4"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
@@ -746,18 +746,18 @@
       <c r="H3" s="4"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
@@ -767,18 +767,18 @@
       <c r="H4" s="4"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
@@ -788,18 +788,18 @@
       <c r="H5" s="4"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
@@ -809,18 +809,18 @@
       <c r="H6" s="4"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
@@ -830,18 +830,18 @@
       <c r="H7" s="4"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
@@ -851,18 +851,18 @@
       <c r="H8" s="4"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
@@ -872,18 +872,18 @@
       <c r="H9" s="4"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
@@ -893,18 +893,18 @@
       <c r="H10" s="4"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
@@ -914,18 +914,18 @@
       <c r="H11" s="4"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
@@ -935,18 +935,18 @@
       <c r="H12" s="4"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
@@ -956,18 +956,18 @@
       <c r="H13" s="4"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
@@ -987,24 +987,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3191EB0F-8B91-4469-8BBC-68F5C0777609}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="56" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="56" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="44.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.1796875" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" customWidth="1"/>
-    <col min="7" max="7" width="35.08984375" customWidth="1"/>
-    <col min="8" max="8" width="42.36328125" customWidth="1"/>
-    <col min="9" max="9" width="49.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1"/>
+    <col min="9" max="9" width="49.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1021,30 +1021,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9">
@@ -1054,18 +1054,18 @@
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9">
@@ -1075,18 +1075,18 @@
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
@@ -1096,18 +1096,18 @@
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
@@ -1117,18 +1117,18 @@
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
@@ -1138,18 +1138,18 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
@@ -1159,18 +1159,18 @@
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
@@ -1180,18 +1180,18 @@
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
@@ -1201,18 +1201,18 @@
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
@@ -1222,18 +1222,18 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
@@ -1243,18 +1243,18 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
